--- a/MainTop/07.11.2024/печать.xlsx
+++ b/MainTop/07.11.2024/печать.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="136">
   <si>
     <t xml:space="preserve">Артикул</t>
   </si>
@@ -223,9 +223,6 @@
     <t xml:space="preserve">Термонаклейка Сердце Бабочки летят</t>
   </si>
   <si>
-    <t xml:space="preserve">Термонаклейки Nike Найк набор</t>
-  </si>
-  <si>
     <t xml:space="preserve">Термонаклейка Цветы Синий Акварель</t>
   </si>
   <si>
@@ -250,16 +247,10 @@
     <t xml:space="preserve">Термонаклейка Микки Маус бабочки цверы силует</t>
   </si>
   <si>
-    <t xml:space="preserve">Термонаклейка Цветы Розовые Ирис</t>
-  </si>
-  <si>
     <t xml:space="preserve">Термонаклейка Мэрилин Монро Медуза Горгона</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Медуза Горгона черно-белый</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термонаклейка Мопс Собачка попа секси</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Штрихкод I Love You</t>
@@ -573,12 +564,12 @@
   <dimension ref="A1:M1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P18" activeCellId="0" sqref="P18"/>
+      <selection pane="topLeft" activeCell="A58" activeCellId="0" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="38.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="38.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="8.67"/>
   </cols>
   <sheetData>
@@ -2585,10 +2576,10 @@
         <v>0.2</v>
       </c>
       <c r="C58" s="0" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D58" s="0" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E58" s="0" t="n">
         <v>13</v>
@@ -2623,7 +2614,7 @@
         <v>1</v>
       </c>
       <c r="D59" s="0" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E59" s="0" t="n">
         <v>13</v>
@@ -2658,7 +2649,7 @@
         <v>1</v>
       </c>
       <c r="D60" s="0" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E60" s="0" t="n">
         <v>13</v>
@@ -2673,13 +2664,13 @@
         <v>2</v>
       </c>
       <c r="I60" s="0" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J60" s="0" t="s">
         <v>11</v>
       </c>
       <c r="L60" s="0" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2687,25 +2678,25 @@
         <v>70</v>
       </c>
       <c r="B61" s="0" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="C61" s="0" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D61" s="0" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E61" s="0" t="n">
         <v>13</v>
       </c>
       <c r="F61" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G61" s="0" t="n">
         <v>801</v>
       </c>
       <c r="H61" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I61" s="0" t="n">
         <v>2</v>
@@ -2725,10 +2716,10 @@
         <v>0.1</v>
       </c>
       <c r="C62" s="0" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" s="0" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E62" s="0" t="n">
         <v>13</v>
@@ -2760,7 +2751,7 @@
         <v>0.1</v>
       </c>
       <c r="C63" s="0" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D63" s="0" t="n">
         <v>3</v>
@@ -2795,10 +2786,10 @@
         <v>0.1</v>
       </c>
       <c r="C64" s="0" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D64" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E64" s="0" t="n">
         <v>13</v>
@@ -2830,10 +2821,10 @@
         <v>0.1</v>
       </c>
       <c r="C65" s="0" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D65" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E65" s="0" t="n">
         <v>13</v>
@@ -2865,10 +2856,10 @@
         <v>0.1</v>
       </c>
       <c r="C66" s="0" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D66" s="0" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E66" s="0" t="n">
         <v>13</v>
@@ -2900,10 +2891,10 @@
         <v>0.1</v>
       </c>
       <c r="C67" s="0" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D67" s="0" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E67" s="0" t="n">
         <v>13</v>
@@ -2935,10 +2926,10 @@
         <v>0.1</v>
       </c>
       <c r="C68" s="0" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D68" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E68" s="0" t="n">
         <v>13</v>
@@ -2970,10 +2961,10 @@
         <v>0.1</v>
       </c>
       <c r="C69" s="0" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D69" s="0" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E69" s="0" t="n">
         <v>13</v>
@@ -3005,10 +2996,10 @@
         <v>0.1</v>
       </c>
       <c r="C70" s="0" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D70" s="0" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E70" s="0" t="n">
         <v>13</v>
@@ -3040,10 +3031,10 @@
         <v>0.1</v>
       </c>
       <c r="C71" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="D71" s="0" t="n">
         <v>5</v>
-      </c>
-      <c r="D71" s="0" t="n">
-        <v>3</v>
       </c>
       <c r="E71" s="0" t="n">
         <v>13</v>
@@ -3075,10 +3066,10 @@
         <v>0.1</v>
       </c>
       <c r="C72" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D72" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E72" s="0" t="n">
         <v>13</v>
@@ -3110,10 +3101,10 @@
         <v>0.1</v>
       </c>
       <c r="C73" s="0" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D73" s="0" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E73" s="0" t="n">
         <v>13</v>
@@ -3145,10 +3136,10 @@
         <v>0.1</v>
       </c>
       <c r="C74" s="0" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D74" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E74" s="0" t="n">
         <v>13</v>
@@ -3180,10 +3171,10 @@
         <v>0.1</v>
       </c>
       <c r="C75" s="0" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D75" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E75" s="0" t="n">
         <v>13</v>
@@ -3215,10 +3206,10 @@
         <v>0.1</v>
       </c>
       <c r="C76" s="0" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D76" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E76" s="0" t="n">
         <v>13</v>
@@ -3250,10 +3241,10 @@
         <v>0.1</v>
       </c>
       <c r="C77" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D77" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E77" s="0" t="n">
         <v>13</v>
@@ -3285,7 +3276,7 @@
         <v>0.1</v>
       </c>
       <c r="C78" s="0" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D78" s="0" t="n">
         <v>5</v>
@@ -3320,10 +3311,10 @@
         <v>0.1</v>
       </c>
       <c r="C79" s="0" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D79" s="0" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E79" s="0" t="n">
         <v>13</v>
@@ -3355,7 +3346,7 @@
         <v>0.1</v>
       </c>
       <c r="C80" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D80" s="0" t="n">
         <v>5</v>
@@ -3390,10 +3381,10 @@
         <v>0.1</v>
       </c>
       <c r="C81" s="0" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D81" s="0" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E81" s="0" t="n">
         <v>13</v>
@@ -3425,10 +3416,10 @@
         <v>0.1</v>
       </c>
       <c r="C82" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D82" s="0" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E82" s="0" t="n">
         <v>13</v>
@@ -3460,10 +3451,10 @@
         <v>0.1</v>
       </c>
       <c r="C83" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D83" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E83" s="0" t="n">
         <v>13</v>
@@ -3498,7 +3489,7 @@
         <v>2</v>
       </c>
       <c r="D84" s="0" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E84" s="0" t="n">
         <v>13</v>
@@ -3530,10 +3521,10 @@
         <v>0.1</v>
       </c>
       <c r="C85" s="0" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D85" s="0" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E85" s="0" t="n">
         <v>13</v>
@@ -3568,7 +3559,7 @@
         <v>3</v>
       </c>
       <c r="D86" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E86" s="0" t="n">
         <v>13</v>
@@ -3603,7 +3594,7 @@
         <v>2</v>
       </c>
       <c r="D87" s="0" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E87" s="0" t="n">
         <v>13</v>
@@ -3670,10 +3661,10 @@
         <v>0.1</v>
       </c>
       <c r="C89" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D89" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E89" s="0" t="n">
         <v>13</v>
@@ -3702,143 +3693,155 @@
         <v>99</v>
       </c>
       <c r="B90" s="0" t="n">
-        <v>0.1</v>
+        <v>2.1</v>
       </c>
       <c r="C90" s="0" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="D90" s="0" t="n">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="E90" s="0" t="n">
         <v>13</v>
       </c>
       <c r="F90" s="0" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="G90" s="0" t="n">
         <v>801</v>
       </c>
       <c r="H90" s="0" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="I90" s="0" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="J90" s="0" t="s">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="L90" s="0" t="n">
-        <v>2</v>
+        <v>20</v>
+      </c>
+      <c r="M90" s="0" t="n">
+        <f aca="false">I90/4</f>
+        <v>5</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="B91" s="0" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="C91" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="D91" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="E91" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="F91" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="G91" s="0" t="n">
+        <v>801</v>
+      </c>
+      <c r="H91" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="I91" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="J91" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="B91" s="0" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="C91" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D91" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="E91" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="F91" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G91" s="0" t="n">
-        <v>801</v>
-      </c>
-      <c r="H91" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="J91" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="L91" s="0" t="n">
-        <v>2</v>
+        <v>20</v>
+      </c>
+      <c r="M91" s="2" t="n">
+        <f aca="false">I91/4</f>
+        <v>5</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B92" s="0" t="n">
-        <v>0.1</v>
+        <v>1.7</v>
       </c>
       <c r="C92" s="0" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D92" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E92" s="0" t="n">
         <v>13</v>
       </c>
       <c r="F92" s="0" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="G92" s="0" t="n">
         <v>801</v>
       </c>
       <c r="H92" s="0" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="I92" s="0" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="J92" s="0" t="s">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="L92" s="0" t="n">
-        <v>2</v>
+        <v>16</v>
+      </c>
+      <c r="M92" s="2" t="n">
+        <f aca="false">I92/4</f>
+        <v>4</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B93" s="0" t="n">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="C93" s="0" t="n">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D93" s="0" t="n">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="E93" s="0" t="n">
         <v>13</v>
       </c>
       <c r="F93" s="0" t="n">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="G93" s="0" t="n">
         <v>801</v>
       </c>
       <c r="H93" s="0" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="I93" s="0" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="J93" s="0" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="L93" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="M93" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="M93" s="2" t="n">
         <f aca="false">I93/4</f>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3846,38 +3849,38 @@
         <v>104</v>
       </c>
       <c r="B94" s="0" t="n">
-        <v>2.1</v>
+        <v>0.6</v>
       </c>
       <c r="C94" s="0" t="n">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D94" s="0" t="n">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="E94" s="0" t="n">
         <v>13</v>
       </c>
       <c r="F94" s="0" t="n">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="G94" s="0" t="n">
         <v>801</v>
       </c>
       <c r="H94" s="0" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="I94" s="0" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="J94" s="0" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="L94" s="0" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="M94" s="2" t="n">
         <f aca="false">I94/4</f>
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3885,38 +3888,38 @@
         <v>105</v>
       </c>
       <c r="B95" s="0" t="n">
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
       <c r="C95" s="0" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="D95" s="0" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E95" s="0" t="n">
         <v>13</v>
       </c>
       <c r="F95" s="0" t="n">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="G95" s="0" t="n">
         <v>801</v>
       </c>
       <c r="H95" s="0" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="I95" s="0" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="J95" s="0" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="L95" s="0" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="M95" s="2" t="n">
         <f aca="false">I95/4</f>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3924,38 +3927,38 @@
         <v>106</v>
       </c>
       <c r="B96" s="0" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="C96" s="0" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D96" s="0" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E96" s="0" t="n">
         <v>13</v>
       </c>
       <c r="F96" s="0" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G96" s="0" t="n">
         <v>801</v>
       </c>
       <c r="H96" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="I96" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="J96" s="0" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="L96" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="M96" s="2" t="n">
         <f aca="false">I96/4</f>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3963,38 +3966,38 @@
         <v>107</v>
       </c>
       <c r="B97" s="0" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="C97" s="0" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D97" s="0" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E97" s="0" t="n">
         <v>13</v>
       </c>
       <c r="F97" s="0" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G97" s="0" t="n">
         <v>801</v>
       </c>
       <c r="H97" s="0" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I97" s="0" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J97" s="0" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="L97" s="0" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M97" s="2" t="n">
         <f aca="false">I97/4</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4002,19 +4005,19 @@
         <v>108</v>
       </c>
       <c r="B98" s="0" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="C98" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D98" s="0" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E98" s="0" t="n">
         <v>13</v>
       </c>
       <c r="F98" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G98" s="0" t="n">
         <v>801</v>
@@ -4026,7 +4029,7 @@
         <v>4</v>
       </c>
       <c r="J98" s="0" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="L98" s="0" t="n">
         <v>4</v>
@@ -4041,31 +4044,31 @@
         <v>109</v>
       </c>
       <c r="B99" s="0" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="C99" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D99" s="0" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E99" s="0" t="n">
         <v>13</v>
       </c>
       <c r="F99" s="0" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G99" s="0" t="n">
         <v>801</v>
       </c>
       <c r="H99" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I99" s="0" t="n">
         <v>4</v>
       </c>
       <c r="J99" s="0" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="L99" s="0" t="n">
         <v>4</v>
@@ -4080,31 +4083,31 @@
         <v>110</v>
       </c>
       <c r="B100" s="0" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="C100" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D100" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="D100" s="0" t="n">
-        <v>7</v>
-      </c>
       <c r="E100" s="0" t="n">
         <v>13</v>
       </c>
       <c r="F100" s="0" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G100" s="0" t="n">
         <v>801</v>
       </c>
       <c r="H100" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I100" s="0" t="n">
         <v>4</v>
       </c>
       <c r="J100" s="0" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="L100" s="0" t="n">
         <v>4</v>
@@ -4119,31 +4122,31 @@
         <v>111</v>
       </c>
       <c r="B101" s="0" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="C101" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D101" s="0" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E101" s="0" t="n">
         <v>13</v>
       </c>
       <c r="F101" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G101" s="0" t="n">
         <v>801</v>
       </c>
       <c r="H101" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I101" s="0" t="n">
         <v>4</v>
       </c>
       <c r="J101" s="0" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="L101" s="0" t="n">
         <v>4</v>
@@ -4154,38 +4157,39 @@
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="0" t="s">
+      <c r="A102" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B102" s="0" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="C102" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="D102" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="E102" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="F102" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="G102" s="0" t="n">
-        <v>801</v>
-      </c>
-      <c r="H102" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="I102" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="J102" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="L102" s="0" t="n">
-        <v>4</v>
+      <c r="B102" s="3" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C102" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D102" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="E102" s="3" t="n">
+        <v>13</v>
+      </c>
+      <c r="F102" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G102" s="3" t="n">
+        <v>801</v>
+      </c>
+      <c r="H102" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="I102" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="K102" s="3"/>
+      <c r="L102" s="3" t="n">
+        <v>2</v>
       </c>
       <c r="M102" s="2" t="n">
         <f aca="false">I102/4</f>
@@ -4193,38 +4197,39 @@
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="0" t="s">
+      <c r="A103" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B103" s="0" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="C103" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="D103" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E103" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="F103" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="G103" s="0" t="n">
-        <v>801</v>
-      </c>
-      <c r="H103" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="I103" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="J103" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="L103" s="0" t="n">
-        <v>4</v>
+      <c r="B103" s="3" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C103" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D103" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="E103" s="3" t="n">
+        <v>13</v>
+      </c>
+      <c r="F103" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G103" s="3" t="n">
+        <v>801</v>
+      </c>
+      <c r="H103" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="I103" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="J103" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="K103" s="3"/>
+      <c r="L103" s="3" t="n">
+        <v>2</v>
       </c>
       <c r="M103" s="2" t="n">
         <f aca="false">I103/4</f>
@@ -4232,38 +4237,39 @@
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="0" t="s">
+      <c r="A104" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B104" s="0" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="C104" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="D104" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="E104" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="F104" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="G104" s="0" t="n">
-        <v>801</v>
-      </c>
-      <c r="H104" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="I104" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="J104" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="L104" s="0" t="n">
-        <v>4</v>
+      <c r="B104" s="3" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C104" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D104" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E104" s="3" t="n">
+        <v>13</v>
+      </c>
+      <c r="F104" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G104" s="3" t="n">
+        <v>801</v>
+      </c>
+      <c r="H104" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="I104" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="J104" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="K104" s="3"/>
+      <c r="L104" s="3" t="n">
+        <v>2</v>
       </c>
       <c r="M104" s="2" t="n">
         <f aca="false">I104/4</f>
@@ -4278,10 +4284,10 @@
         <v>0.2</v>
       </c>
       <c r="C105" s="3" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D105" s="3" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E105" s="3" t="n">
         <v>13</v>
@@ -4299,7 +4305,7 @@
         <v>4</v>
       </c>
       <c r="J105" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K105" s="3"/>
       <c r="L105" s="3" t="n">
@@ -4318,10 +4324,10 @@
         <v>0.2</v>
       </c>
       <c r="C106" s="3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D106" s="3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E106" s="3" t="n">
         <v>13</v>
@@ -4339,7 +4345,7 @@
         <v>4</v>
       </c>
       <c r="J106" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K106" s="3"/>
       <c r="L106" s="3" t="n">
@@ -4358,10 +4364,10 @@
         <v>0.2</v>
       </c>
       <c r="C107" s="3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D107" s="3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E107" s="3" t="n">
         <v>13</v>
@@ -4379,7 +4385,7 @@
         <v>4</v>
       </c>
       <c r="J107" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K107" s="3"/>
       <c r="L107" s="3" t="n">
@@ -4401,7 +4407,7 @@
         <v>7</v>
       </c>
       <c r="D108" s="3" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E108" s="3" t="n">
         <v>13</v>
@@ -4419,7 +4425,7 @@
         <v>4</v>
       </c>
       <c r="J108" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K108" s="3"/>
       <c r="L108" s="3" t="n">
@@ -4435,31 +4441,31 @@
         <v>119</v>
       </c>
       <c r="B109" s="3" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="C109" s="3" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D109" s="3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E109" s="3" t="n">
         <v>13</v>
       </c>
       <c r="F109" s="3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G109" s="3" t="n">
         <v>801</v>
       </c>
       <c r="H109" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I109" s="3" t="n">
         <v>4</v>
       </c>
       <c r="J109" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K109" s="3"/>
       <c r="L109" s="3" t="n">
@@ -4475,31 +4481,31 @@
         <v>120</v>
       </c>
       <c r="B110" s="3" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="C110" s="3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D110" s="3" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="E110" s="3" t="n">
         <v>13</v>
       </c>
       <c r="F110" s="3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G110" s="3" t="n">
         <v>801</v>
       </c>
       <c r="H110" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I110" s="3" t="n">
         <v>4</v>
       </c>
       <c r="J110" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K110" s="3"/>
       <c r="L110" s="3" t="n">
@@ -4515,7 +4521,7 @@
         <v>121</v>
       </c>
       <c r="B111" s="3" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="C111" s="3" t="n">
         <v>7</v>
@@ -4527,19 +4533,19 @@
         <v>13</v>
       </c>
       <c r="F111" s="3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G111" s="3" t="n">
         <v>801</v>
       </c>
       <c r="H111" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I111" s="3" t="n">
         <v>4</v>
       </c>
       <c r="J111" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K111" s="3"/>
       <c r="L111" s="3" t="n">
@@ -4558,10 +4564,10 @@
         <v>0.1</v>
       </c>
       <c r="C112" s="3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D112" s="3" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E112" s="3" t="n">
         <v>13</v>
@@ -4579,7 +4585,7 @@
         <v>4</v>
       </c>
       <c r="J112" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K112" s="3"/>
       <c r="L112" s="3" t="n">
@@ -4598,10 +4604,10 @@
         <v>0.1</v>
       </c>
       <c r="C113" s="3" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D113" s="3" t="n">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="E113" s="3" t="n">
         <v>13</v>
@@ -4619,7 +4625,7 @@
         <v>4</v>
       </c>
       <c r="J113" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K113" s="3"/>
       <c r="L113" s="3" t="n">
@@ -4638,10 +4644,10 @@
         <v>0.1</v>
       </c>
       <c r="C114" s="3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D114" s="3" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E114" s="3" t="n">
         <v>13</v>
@@ -4659,7 +4665,7 @@
         <v>4</v>
       </c>
       <c r="J114" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K114" s="3"/>
       <c r="L114" s="3" t="n">
@@ -4678,10 +4684,10 @@
         <v>0.1</v>
       </c>
       <c r="C115" s="3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D115" s="3" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E115" s="3" t="n">
         <v>13</v>
@@ -4699,7 +4705,7 @@
         <v>4</v>
       </c>
       <c r="J115" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K115" s="3"/>
       <c r="L115" s="3" t="n">
@@ -4721,7 +4727,7 @@
         <v>4</v>
       </c>
       <c r="D116" s="3" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E116" s="3" t="n">
         <v>13</v>
@@ -4739,7 +4745,7 @@
         <v>4</v>
       </c>
       <c r="J116" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K116" s="3"/>
       <c r="L116" s="3" t="n">
@@ -4758,7 +4764,7 @@
         <v>0.1</v>
       </c>
       <c r="C117" s="3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" s="3" t="n">
         <v>0</v>
@@ -4779,7 +4785,7 @@
         <v>4</v>
       </c>
       <c r="J117" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K117" s="3"/>
       <c r="L117" s="3" t="n">
@@ -4801,7 +4807,7 @@
         <v>7</v>
       </c>
       <c r="D118" s="3" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E118" s="3" t="n">
         <v>13</v>
@@ -4819,7 +4825,7 @@
         <v>4</v>
       </c>
       <c r="J118" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K118" s="3"/>
       <c r="L118" s="3" t="n">
@@ -4838,10 +4844,10 @@
         <v>0.1</v>
       </c>
       <c r="C119" s="3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D119" s="3" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E119" s="3" t="n">
         <v>13</v>
@@ -4859,7 +4865,7 @@
         <v>4</v>
       </c>
       <c r="J119" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K119" s="3"/>
       <c r="L119" s="3" t="n">
@@ -4878,10 +4884,10 @@
         <v>0.1</v>
       </c>
       <c r="C120" s="3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D120" s="3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E120" s="3" t="n">
         <v>13</v>
@@ -4899,7 +4905,7 @@
         <v>4</v>
       </c>
       <c r="J120" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K120" s="3"/>
       <c r="L120" s="3" t="n">
@@ -4921,7 +4927,7 @@
         <v>7</v>
       </c>
       <c r="D121" s="3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E121" s="3" t="n">
         <v>13</v>
@@ -4939,7 +4945,7 @@
         <v>4</v>
       </c>
       <c r="J121" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K121" s="3"/>
       <c r="L121" s="3" t="n">
@@ -4958,10 +4964,10 @@
         <v>0.1</v>
       </c>
       <c r="C122" s="3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D122" s="3" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E122" s="3" t="n">
         <v>13</v>
@@ -4979,7 +4985,7 @@
         <v>4</v>
       </c>
       <c r="J122" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K122" s="3"/>
       <c r="L122" s="3" t="n">
@@ -4998,10 +5004,10 @@
         <v>0.1</v>
       </c>
       <c r="C123" s="3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" s="3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E123" s="3" t="n">
         <v>13</v>
@@ -5019,7 +5025,7 @@
         <v>4</v>
       </c>
       <c r="J123" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K123" s="3"/>
       <c r="L123" s="3" t="n">
@@ -5038,10 +5044,10 @@
         <v>0.1</v>
       </c>
       <c r="C124" s="3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D124" s="3" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E124" s="3" t="n">
         <v>13</v>
@@ -5059,7 +5065,7 @@
         <v>4</v>
       </c>
       <c r="J124" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K124" s="3"/>
       <c r="L124" s="3" t="n">
@@ -5081,7 +5087,7 @@
         <v>4</v>
       </c>
       <c r="D125" s="3" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E125" s="3" t="n">
         <v>13</v>
@@ -5099,7 +5105,7 @@
         <v>4</v>
       </c>
       <c r="J125" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K125" s="3"/>
       <c r="L125" s="3" t="n">
@@ -5111,128 +5117,11 @@
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="B126" s="3" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="C126" s="3" t="n">
-        <v>9</v>
-      </c>
-      <c r="D126" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="E126" s="3" t="n">
-        <v>13</v>
-      </c>
-      <c r="F126" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G126" s="3" t="n">
-        <v>801</v>
-      </c>
-      <c r="H126" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I126" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="J126" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="K126" s="3"/>
-      <c r="L126" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="M126" s="2" t="n">
-        <f aca="false">I126/4</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="B127" s="3" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="C127" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D127" s="3" t="n">
-        <v>11</v>
-      </c>
-      <c r="E127" s="3" t="n">
-        <v>13</v>
-      </c>
-      <c r="F127" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G127" s="3" t="n">
-        <v>801</v>
-      </c>
-      <c r="H127" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I127" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="J127" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="K127" s="3"/>
-      <c r="L127" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="M127" s="2" t="n">
-        <f aca="false">I127/4</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="B128" s="3" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="C128" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D128" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="E128" s="3" t="n">
-        <v>13</v>
-      </c>
-      <c r="F128" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G128" s="3" t="n">
-        <v>801</v>
-      </c>
-      <c r="H128" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="J128" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="K128" s="3"/>
-      <c r="L128" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="M128" s="2" t="n">
-        <f aca="false">I128/4</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L129" s="2"/>
-    </row>
+      <c r="L126" s="2"/>
+    </row>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
